--- a/Base/Teams/Bills/Distributions.xlsx
+++ b/Base/Teams/Bills/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.0318781879564853, 1.6480219280023394, -1.354602896671644, 2.7642818419624193)</t>
-  </si>
-  <si>
-    <t>MIE(9.428052485078274, 3.458372223819321, -9.115405530502827, 12.460133472371705)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7928938767876579, 1.1189521439936967, 0.5216164797388476, 3.1182971077264816)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7856201470551665, 1.113814016585636, 4.556532376573649, 4.355430310553958)</t>
+    <t>NCT(2.8169450852939946, 1.6038962399887462, -1.0900662187919659, 2.605752754704329)</t>
+  </si>
+  <si>
+    <t>NIG(1.623920280084042, 1.3418022223479718, 3.220262939470181, 5.456774766805287)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7369152381565225, 1.0571326971150645, 0.6725926764094313, 3.000214114320405)</t>
+  </si>
+  <si>
+    <t>NIG(0.779430990532496, 0.5057119149940451, 5.546002306028655, 4.694736544267396)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bills/Distributions.xlsx
+++ b/Base/Teams/Bills/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.8169450852939946, 1.6038962399887462, -1.0900662187919659, 2.605752754704329)</t>
-  </si>
-  <si>
-    <t>NIG(1.623920280084042, 1.3418022223479718, 3.220262939470181, 5.456774766805287)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7369152381565225, 1.0571326971150645, 0.6725926764094313, 3.000214114320405)</t>
-  </si>
-  <si>
-    <t>NIG(0.779430990532496, 0.5057119149940451, 5.546002306028655, 4.694736544267396)</t>
+    <t>NCT(2.682599065821893, 1.6902474096035132, -1.3475849219033682, 2.6638145849986126)</t>
+  </si>
+  <si>
+    <t>NIG(1.973811874207114, 1.6449359498414733, 2.469656053739959, 5.622544467228233)</t>
+  </si>
+  <si>
+    <t>JSU(-0.741201265403811, 1.0060574798467825, 0.679260594338078, 2.7259575353294823)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7714322775378564, 1.0536051183745592, 4.734279630206152, 4.103008216991709)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bills/Distributions.xlsx
+++ b/Base/Teams/Bills/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.682599065821893, 1.6902474096035132, -1.3475849219033682, 2.6638145849986126)</t>
-  </si>
-  <si>
-    <t>NIG(1.973811874207114, 1.6449359498414733, 2.469656053739959, 5.622544467228233)</t>
-  </si>
-  <si>
-    <t>JSU(-0.741201265403811, 1.0060574798467825, 0.679260594338078, 2.7259575353294823)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7714322775378564, 1.0536051183745592, 4.734279630206152, 4.103008216991709)</t>
+    <t>NCT(2.5400586209180323, 1.663049718235778, -1.117886511442075, 2.513879836028467)</t>
+  </si>
+  <si>
+    <t>NCT(2.875718548035966, 1.9242384096750262, -0.015852927372324348, 4.064348798436132)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8199789554989656, 1.013170099287664, 0.5008443120330275, 2.6918353655703955)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7797907705206331, 1.075815679049899, 4.797260706476486, 4.104736785649902)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bills/Distributions.xlsx
+++ b/Base/Teams/Bills/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.5400586209180323, 1.663049718235778, -1.117886511442075, 2.513879836028467)</t>
-  </si>
-  <si>
-    <t>NCT(2.875718548035966, 1.9242384096750262, -0.015852927372324348, 4.064348798436132)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8199789554989656, 1.013170099287664, 0.5008443120330275, 2.6918353655703955)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7797907705206331, 1.075815679049899, 4.797260706476486, 4.104736785649902)</t>
+    <t>NCT(2.601837382907111, 1.6659946294738037, -1.024585524996625, 2.5351015952785687)</t>
+  </si>
+  <si>
+    <t>MIE(8.023361018571332, 4.008816126641602, -9.676324522946352, 14.76630828651298)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8201033655273211, 1.0382123968132873, 0.5147207733496624, 2.8291306301441965)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7905148869504085, 1.078562365629914, 4.771277283980243, 4.228684894806838)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bills/Distributions.xlsx
+++ b/Base/Teams/Bills/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.601837382907111, 1.6659946294738037, -1.024585524996625, 2.5351015952785687)</t>
-  </si>
-  <si>
-    <t>MIE(8.023361018571332, 4.008816126641602, -9.676324522946352, 14.76630828651298)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8201033655273211, 1.0382123968132873, 0.5147207733496624, 2.8291306301441965)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7905148869504085, 1.078562365629914, 4.771277283980243, 4.228684894806838)</t>
+    <t>NCT(2.6052799672350293, 1.7882640872041984, -1.3585632612089646, 2.5423610201704983)</t>
+  </si>
+  <si>
+    <t>NCT(3.898824241927285, 3.2534165807933397, -4.499285631339608, 3.7886449486043166)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8582328301860884, 1.0347669633502354, 0.3856610399861583, 2.71149313721872)</t>
+  </si>
+  <si>
+    <t>NIG(0.766254854856606, 0.5284052195459137, 5.529037748284827, 4.6402262290647025)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bills/Distributions.xlsx
+++ b/Base/Teams/Bills/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.6052799672350293, 1.7882640872041984, -1.3585632612089646, 2.5423610201704983)</t>
-  </si>
-  <si>
-    <t>NCT(3.898824241927285, 3.2534165807933397, -4.499285631339608, 3.7886449486043166)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8582328301860884, 1.0347669633502354, 0.3856610399861583, 2.71149313721872)</t>
-  </si>
-  <si>
-    <t>NIG(0.766254854856606, 0.5284052195459137, 5.529037748284827, 4.6402262290647025)</t>
+    <t>JSU(-1.1157766683724957, 1.1269512849333672, 0.41681527373110006, 2.7997779286123246)</t>
+  </si>
+  <si>
+    <t>NCT(2.834196715794942, 1.869376479499965, -0.014774780250638223, 4.220180299671757)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8392850001727481, 1.0286360748939765, 0.49334850490776, 2.759594435497329)</t>
+  </si>
+  <si>
+    <t>NIG(0.7325956988739737, 0.5322197403921348, 5.423068151618155, 4.391050015164552)</t>
   </si>
 </sst>
 </file>
